--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.167311</v>
+        <v>34.22762</v>
       </c>
       <c r="H2">
-        <v>78.50193300000001</v>
+        <v>102.68286</v>
       </c>
       <c r="I2">
-        <v>0.2570455291913796</v>
+        <v>0.2984485907090856</v>
       </c>
       <c r="J2">
-        <v>0.2645760588013327</v>
+        <v>0.3095564710510569</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N2">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O2">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P2">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q2">
-        <v>7.891965050793001</v>
+        <v>5.522706351446668</v>
       </c>
       <c r="R2">
-        <v>71.02768545713701</v>
+        <v>49.70435716302001</v>
       </c>
       <c r="S2">
-        <v>0.1217728235387799</v>
+        <v>0.08734892769795694</v>
       </c>
       <c r="T2">
-        <v>0.1504818714105474</v>
+        <v>0.1170747952033114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.167311</v>
+        <v>34.22762</v>
       </c>
       <c r="H3">
-        <v>78.50193300000001</v>
+        <v>102.68286</v>
       </c>
       <c r="I3">
-        <v>0.2570455291913796</v>
+        <v>0.2984485907090856</v>
       </c>
       <c r="J3">
-        <v>0.2645760588013327</v>
+        <v>0.3095564710510569</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P3">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q3">
-        <v>0.4171243822140001</v>
+        <v>0.5456110812133335</v>
       </c>
       <c r="R3">
-        <v>3.754119439926001</v>
+        <v>4.910499730920001</v>
       </c>
       <c r="S3">
-        <v>0.00643621879495831</v>
+        <v>0.008629563089412397</v>
       </c>
       <c r="T3">
-        <v>0.007953615765217305</v>
+        <v>0.01156630491081166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.167311</v>
+        <v>34.22762</v>
       </c>
       <c r="H4">
-        <v>78.50193300000001</v>
+        <v>102.68286</v>
       </c>
       <c r="I4">
-        <v>0.2570455291913796</v>
+        <v>0.2984485907090856</v>
       </c>
       <c r="J4">
-        <v>0.2645760588013327</v>
+        <v>0.3095564710510569</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N4">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O4">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P4">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q4">
-        <v>8.349753434301</v>
+        <v>12.80133524572</v>
       </c>
       <c r="R4">
-        <v>50.09852060580601</v>
+        <v>76.80801147432</v>
       </c>
       <c r="S4">
-        <v>0.1288364868576413</v>
+        <v>0.2024700999217163</v>
       </c>
       <c r="T4">
-        <v>0.1061405716255679</v>
+        <v>0.1809153709369338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.67978100000001</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H5">
         <v>197.039343</v>
       </c>
       <c r="I5">
-        <v>0.6451826121651902</v>
+        <v>0.5726964970842663</v>
       </c>
       <c r="J5">
-        <v>0.6640841926751532</v>
+        <v>0.594011538803056</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N5">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O5">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P5">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q5">
-        <v>19.80878112373633</v>
+        <v>10.59758591717233</v>
       </c>
       <c r="R5">
-        <v>178.279030113627</v>
+        <v>95.37827325455099</v>
       </c>
       <c r="S5">
-        <v>0.30564899778119</v>
+        <v>0.1676148806661592</v>
       </c>
       <c r="T5">
-        <v>0.3777085218544205</v>
+        <v>0.2246561960654391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.67978100000001</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H6">
         <v>197.039343</v>
       </c>
       <c r="I6">
-        <v>0.6451826121651902</v>
+        <v>0.5726964970842663</v>
       </c>
       <c r="J6">
-        <v>0.6640841926751532</v>
+        <v>0.594011538803056</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P6">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q6">
         <v>1.046979495660667</v>
       </c>
       <c r="R6">
-        <v>9.422815460946001</v>
+        <v>9.422815460946</v>
       </c>
       <c r="S6">
-        <v>0.01615486745737633</v>
+        <v>0.01655936970897449</v>
       </c>
       <c r="T6">
-        <v>0.01996352401733675</v>
+        <v>0.02219471799445402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.67978100000001</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H7">
         <v>197.039343</v>
       </c>
       <c r="I7">
-        <v>0.6451826121651902</v>
+        <v>0.5726964970842663</v>
       </c>
       <c r="J7">
-        <v>0.6640841926751532</v>
+        <v>0.594011538803056</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N7">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O7">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P7">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q7">
-        <v>20.957826999071</v>
+        <v>24.56463217268599</v>
       </c>
       <c r="R7">
-        <v>125.746961994426</v>
+        <v>147.387793036116</v>
       </c>
       <c r="S7">
-        <v>0.3233787469266239</v>
+        <v>0.3885222467091325</v>
       </c>
       <c r="T7">
-        <v>0.2664121468033959</v>
+        <v>0.3471606247431629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6031273333333333</v>
+        <v>0.871228</v>
       </c>
       <c r="H8">
-        <v>1.809382</v>
+        <v>2.613684</v>
       </c>
       <c r="I8">
-        <v>0.005924612756979586</v>
+        <v>0.007596694388517088</v>
       </c>
       <c r="J8">
-        <v>0.006098183065454872</v>
+        <v>0.007879433777775674</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N8">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O8">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P8">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q8">
-        <v>0.1819009922664445</v>
+        <v>0.1405746706653334</v>
       </c>
       <c r="R8">
-        <v>1.637108930398</v>
+        <v>1.265172035988</v>
       </c>
       <c r="S8">
-        <v>0.002806727765547438</v>
+        <v>0.002223374911268607</v>
       </c>
       <c r="T8">
-        <v>0.003468439298896744</v>
+        <v>0.002980015545205615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6031273333333333</v>
+        <v>0.871228</v>
       </c>
       <c r="H9">
-        <v>1.809382</v>
+        <v>2.613684</v>
       </c>
       <c r="I9">
-        <v>0.005924612756979586</v>
+        <v>0.007596694388517088</v>
       </c>
       <c r="J9">
-        <v>0.006098183065454872</v>
+        <v>0.007879433777775674</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P9">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q9">
-        <v>0.009614251778222224</v>
+        <v>0.01388795513866667</v>
       </c>
       <c r="R9">
-        <v>0.08652826600400002</v>
+        <v>0.124991596248</v>
       </c>
       <c r="S9">
-        <v>0.000148347664708578</v>
+        <v>0.0002196564351030712</v>
       </c>
       <c r="T9">
-        <v>0.0001833219724729634</v>
+        <v>0.0002944081035969378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6031273333333333</v>
+        <v>0.871228</v>
       </c>
       <c r="H10">
-        <v>1.809382</v>
+        <v>2.613684</v>
       </c>
       <c r="I10">
-        <v>0.005924612756979586</v>
+        <v>0.007596694388517088</v>
       </c>
       <c r="J10">
-        <v>0.006098183065454872</v>
+        <v>0.007879433777775674</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N10">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O10">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P10">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q10">
-        <v>0.1924525039206667</v>
+        <v>0.325844499368</v>
       </c>
       <c r="R10">
-        <v>1.154715023524</v>
+        <v>1.955066996208</v>
       </c>
       <c r="S10">
-        <v>0.00296953732672357</v>
+        <v>0.005153663042145409</v>
       </c>
       <c r="T10">
-        <v>0.002446421794085164</v>
+        <v>0.004605010128973121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.692511500000002</v>
+        <v>12.345814</v>
       </c>
       <c r="H11">
-        <v>17.385023</v>
+        <v>24.691628</v>
       </c>
       <c r="I11">
-        <v>0.08538788026479499</v>
+        <v>0.1076496346943346</v>
       </c>
       <c r="J11">
-        <v>0.05859296315048092</v>
+        <v>0.07443747893451221</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N11">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O11">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P11">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q11">
-        <v>2.621629595857834</v>
+        <v>1.992025895799334</v>
       </c>
       <c r="R11">
-        <v>15.729777575147</v>
+        <v>11.952155374796</v>
       </c>
       <c r="S11">
-        <v>0.04045167915795075</v>
+        <v>0.03150653228177783</v>
       </c>
       <c r="T11">
-        <v>0.03332568633125773</v>
+        <v>0.02815238386753495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.692511500000002</v>
+        <v>12.345814</v>
       </c>
       <c r="H12">
-        <v>17.385023</v>
+        <v>24.691628</v>
       </c>
       <c r="I12">
-        <v>0.08538788026479499</v>
+        <v>0.1076496346943346</v>
       </c>
       <c r="J12">
-        <v>0.05859296315048092</v>
+        <v>0.07443747893451221</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.047822</v>
       </c>
       <c r="O12">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P12">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q12">
-        <v>0.1385644283176667</v>
+        <v>0.1968005057026667</v>
       </c>
       <c r="R12">
-        <v>0.8313865699060002</v>
+        <v>1.180803034216</v>
       </c>
       <c r="S12">
-        <v>0.002138045666659874</v>
+        <v>0.003112661084911858</v>
       </c>
       <c r="T12">
-        <v>0.001761406219276989</v>
+        <v>0.002781290842428178</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.692511500000002</v>
+        <v>12.345814</v>
       </c>
       <c r="H13">
-        <v>17.385023</v>
+        <v>24.691628</v>
       </c>
       <c r="I13">
-        <v>0.08538788026479499</v>
+        <v>0.1076496346943346</v>
       </c>
       <c r="J13">
-        <v>0.05859296315048092</v>
+        <v>0.07443747893451221</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N13">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O13">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P13">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q13">
-        <v>2.773702187046501</v>
+        <v>4.617408510883999</v>
       </c>
       <c r="R13">
-        <v>11.094808748186</v>
+        <v>18.469634043536</v>
       </c>
       <c r="S13">
-        <v>0.04279815544018437</v>
+        <v>0.07303044132764486</v>
       </c>
       <c r="T13">
-        <v>0.0235058705999462</v>
+        <v>0.04350380422454907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6575653333333333</v>
+        <v>1.560702333333333</v>
       </c>
       <c r="H14">
-        <v>1.972696</v>
+        <v>4.682107</v>
       </c>
       <c r="I14">
-        <v>0.006459365621655682</v>
+        <v>0.01360858312379636</v>
       </c>
       <c r="J14">
-        <v>0.006648602307578258</v>
+        <v>0.01411507743359944</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N14">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O14">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P14">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q14">
-        <v>0.1983192934604445</v>
+        <v>0.2518229631221112</v>
       </c>
       <c r="R14">
-        <v>1.784873641144</v>
+        <v>2.266406668099</v>
       </c>
       <c r="S14">
-        <v>0.003060061742730042</v>
+        <v>0.003982914245056069</v>
       </c>
       <c r="T14">
-        <v>0.003781499059444833</v>
+        <v>0.005338346810217312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6575653333333333</v>
+        <v>1.560702333333333</v>
       </c>
       <c r="H15">
-        <v>1.972696</v>
+        <v>4.682107</v>
       </c>
       <c r="I15">
-        <v>0.006459365621655682</v>
+        <v>0.01360858312379636</v>
       </c>
       <c r="J15">
-        <v>0.006648602307578258</v>
+        <v>0.01411507743359944</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.047822</v>
       </c>
       <c r="O15">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P15">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q15">
-        <v>0.01048202979022222</v>
+        <v>0.02487863566155556</v>
       </c>
       <c r="R15">
-        <v>0.09433826811200001</v>
+        <v>0.223907720954</v>
       </c>
       <c r="S15">
-        <v>0.000161737457750742</v>
+        <v>0.0003934886284612583</v>
       </c>
       <c r="T15">
-        <v>0.000199868530696959</v>
+        <v>0.0005273974369923632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6575653333333333</v>
+        <v>1.560702333333333</v>
       </c>
       <c r="H16">
-        <v>1.972696</v>
+        <v>4.682107</v>
       </c>
       <c r="I16">
-        <v>0.006459365621655682</v>
+        <v>0.01360858312379636</v>
       </c>
       <c r="J16">
-        <v>0.006648602307578258</v>
+        <v>0.01411507743359944</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N16">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O16">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P16">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q16">
-        <v>0.2098231797786667</v>
+        <v>0.5837120368806666</v>
       </c>
       <c r="R16">
-        <v>1.258939078672</v>
+        <v>3.502272221284</v>
       </c>
       <c r="S16">
-        <v>0.003237566421174898</v>
+        <v>0.009232180250279037</v>
       </c>
       <c r="T16">
-        <v>0.002667234717436466</v>
+        <v>0.008249333186389768</v>
       </c>
     </row>
   </sheetData>
